--- a/1.Manual Task 1&2/1.monefytestcases.xlsx
+++ b/1.Manual Task 1&2/1.monefytestcases.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\OneDrive\Desktop\Software Testing Bootcamp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DF629-40EF-4EA0-9A07-D4CA8BAB7D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D28F560-55E3-4030-A30E-E2B3C5F2A752}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" r:id="rId1"/>
@@ -360,12 +354,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -373,32 +367,39 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +430,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -454,10 +460,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,8 +490,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -789,35 +803,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0149F8C-E62E-46D9-95D6-D9A7BB16E8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="35.59765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.8984375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.8984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -871,7 +885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -890,7 +904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -913,7 +927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" s="6" t="s">
         <v>23</v>
@@ -931,7 +945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -949,7 +963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7" s="6" t="s">
         <v>84</v>
@@ -967,7 +981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1013,7 +1027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>39</v>
@@ -1031,7 +1045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>47</v>
@@ -1072,7 +1086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -1113,7 +1127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16" s="6" t="s">
         <v>65</v>
@@ -1154,7 +1168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -1177,7 +1191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -1223,28 +1237,31 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I19" xr:uid="{43FCA919-4F8F-4365-B670-341345CB635C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I19">
       <formula1>"Passed,Failed,Blocked,Ready To Test"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>